--- a/attachment/章节目录.xlsx
+++ b/attachment/章节目录.xlsx
@@ -448,7 +448,7 @@
   <dimension ref="A2:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
